--- a/Crawling/crawling_data/facebook/facebook_20220323-174634.xlsx
+++ b/Crawling/crawling_data/facebook/facebook_20220323-174634.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Wantreez\Crawling\crawling_data\facebook\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39344D7-34A4-4547-B63F-505DAA0E66CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -217,105 +223,105 @@
     <t>Gyeonggi Launches Blockchain-based Artist Video Platform Service ‘Gyeonggi ArtON’</t>
   </si>
   <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02bLucHjy5bx4t7TfDzfDmTqn3NZnLosp5UnyRPTvf7A4ZYsEaKAFYyveXDDQ4Sozfl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0YrrsqeNWWiH69GdWM4axkH1QNovmkj38rkpRT1mnqX7apjQhPYUNUfKt8nCQR94Kl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02qqVpJSXHRYwSYswrE6SHaKiZmjnxpQh541hzvMkzpQUf6RELjQsdjq7edXQvGQQrl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02bKhw5WfZPWgE9RCV4skNwcMBGR2deMvmheH5AjauRti1bqDGvvMQcWqvj66Tm8tMl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02hNALVscLXfQMFGxZ85L5umdGixjq6KVZ3v4LYmTJRRcYg3pvwCA3gUiu4HtnhjsMl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02zZ9882aucU76uAf7EgB6VKKbwFqhopwLqTe8umbiQbZDEfrBdTvDNGwC6QVYE4JHl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0JAhDpEB6SkoAPDrrQuZdsaWr8CsNF891hHygWkLg2jKLtDuAYtwcR3g2iuK9QTqVl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02jYjdjXi2fosdEi3vpnbGYzKBSWvXK93ebCvDtNwSnTfFATXLqXr5LKFvM29cDuCgl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02PgTfCR93HF4WF4cRFjtGdMHGfa5yD8ZrRBQTkvAZbjnENfoCKcZdc6ZAevjN6VB4l</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid03Fy7LGYVn3MHPox5THdfHSjWxiMd9BeBAfaSDNCVXJRgwUCgauE36CHoeJVtgbgpl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0PyHBcrGVgRcJzr3PgrjvdX3MsovmF9tiYa51BLKf4h8pvQ5iVdyMspgGWDzDpW2Cl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0cqBgB57CSutW6RpHfDPiLij1uny6t5cKPjHS18p4oaCqvdGpmpgf2wchwjN1kGmRl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02vui91fREHizuDJvbcYcFxFy6jzCTZ5JZRTx83SJGLuAoChFZHeBCEMR44XcpPHaml</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid036JT31LPyA5eNiivANGTaVqJwcqcDkHJThP5PrPEeoBWdwf8faisiUL4E3izzPiyzl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid038D5bDsamSG4kXV1UNMckvhZ1pX4deS7ag3VV5ta5LXskvgBYU2KTDqMR1E9uoyNel</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0mRQEXeD3fcnVhBdQ6BnZxu9JZZjdDwP2mUYjZvdorjWBFfWjqV3jrFrVNQvotQZZl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0FqVVuKp78HhkCubhNPA6HVaxBSmXv4Qs5fnqfAgxGbcUwv12UPdzMHrmZ1rFn8Q7l</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid035Fqaz6A9kZDkMomTguGyNYfamsTSkJx6yzkEi3Yt4a1p6ekZgZ7LwQ6HUShBZn7xl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid08KR6N5A29QwshBszso9UT9sU5LQF8QKYX1s8e1FvZ99ctsrBTtrRTLkvnUQsY96Rl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0CEuCkEGZwLnNQZGQWLSkERJmk1neuPfWyMjq8crMH36UikyhVxSCoEz6QqXd8cBkl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02SGqqKVQheSRgqKpN89vV6E2fxqJbhXYWu1yASAa93EM8Jsw3S3gvuuS64wk3mWYUl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid034pq2tSgfKMoLLTAHYmT6Q4vSHoH3u1JfYWd9uAPgF6kX2SuFv9fC4Ku9Fbz2oCWSl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02kFueVAtAWAbgdkhtF5ME9bHTzDM6o4x9ttnNLNRhhdVAqqagJFq1S8Fcy4xHVLkil</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0yQJfKDaztB6nukxmVBbXKemxQ95RtLcA5RgXBPjQFgP5yESRumbcxnUhgipj8T7dl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0wkRDn3Hmw7tUVJN1JcYemcAejVPjE1VCCHysAm9oiMi2L2p18ryq8roBfMt9dDY4l</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02HqN1LFSSBp2LCcCeaKY2UuRonyau67oBnu3Sf5Jn97nC93FKKrvEiHgVGjEnpSml</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0WCYeW3HrtYqnSyDnmdzj3xWMXyi294dGx8JFcaB7LQMqMQ423xwdDSTsJgivRtMZl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0Jnx9UH7AprfVdbYCTQCR3jecPHBrPK2ux3MtrPZAvY9E5DPXYU3HFwF4HSG5zmgWl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0wrBX1VahhLmzASsJ9CEzQbpaVn8VF8Y19S5KNGgP8xrN3QQMqPFEC72RdYG1EBpl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02esMBTuC5fkcY7F1vHskb7g1qWip1LzEViYYUx6aDwyZ4Y9sFiVDCKXB2SVmwokb4l</t>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/291427883012892</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/293978592757821</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/295098979312449</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/295613609260986</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/298803512275329</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/299420042213676</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/301159845373029</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/302820295206984</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/305278478294499</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/306608341494846</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/306616221494058</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/312037957618551</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/312159360939744</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/314362554052758</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/315564663932547</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/318223103666703</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/320568020098878</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/323141739841506</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/323737423115271</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/326880142800999</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/328140656008281</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/329500309205649</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/331963268959353</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/333152298840450</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/333759512113062</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/336384715183875</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/337624815059865</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/338402151648798</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/340317528123927</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/341337934688553</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -323,7 +329,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -333,6 +339,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,16 +395,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,9 +486,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,6 +538,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,14 +731,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -727,7 +789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -750,7 +812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -773,7 +835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -796,7 +858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -819,7 +881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -842,7 +904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -865,7 +927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -888,7 +950,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -911,7 +973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -934,7 +996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -957,7 +1019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -980,7 +1042,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1003,7 +1065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1049,7 +1111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1118,7 +1180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1141,7 +1203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1164,7 +1226,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1256,7 +1318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1279,7 +1341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1325,7 +1387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1348,7 +1410,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -1371,7 +1433,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1379,7 +1441,7 @@
         <v>66</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -1395,38 +1457,38 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G18" r:id="rId17"/>
-    <hyperlink ref="G19" r:id="rId18"/>
-    <hyperlink ref="G20" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20"/>
-    <hyperlink ref="G22" r:id="rId21"/>
-    <hyperlink ref="G23" r:id="rId22"/>
-    <hyperlink ref="G24" r:id="rId23"/>
-    <hyperlink ref="G25" r:id="rId24"/>
-    <hyperlink ref="G26" r:id="rId25"/>
-    <hyperlink ref="G27" r:id="rId26"/>
-    <hyperlink ref="G28" r:id="rId27"/>
-    <hyperlink ref="G29" r:id="rId28"/>
-    <hyperlink ref="G30" r:id="rId29"/>
-    <hyperlink ref="G31" r:id="rId30"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{B01BA873-FC3E-4959-BC57-6F795C0E7174}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{A8E14555-D30F-40EA-8233-C85116E74273}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{398CFA37-DA25-4C52-82B7-89794021FD7D}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{969E855A-4DDC-4D9B-A668-70B1EE370B9A}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{3396F32A-78E8-49D4-BC33-1D7EE94CFDFD}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{F1951668-89BA-4A87-BF92-76521E589466}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{DF3C41DD-7901-4A3B-B403-7C0C3F150CE8}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{144CD9F5-67B1-45C8-B195-0C4440F6EA01}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{3AA7A29A-D7C8-4CF4-A608-01B01157815B}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{C15C2D87-A383-4966-A58C-25E8F35627DC}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{32185634-76DE-419B-BD0A-0353871DCCFF}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{2E6D2F03-E913-424B-AD8A-BFC747A8547F}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{372682E0-85FD-4A40-BA43-DE34BE5FEC70}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{90BF8C91-6E36-46FD-B7A5-541AC9CAEE56}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{C23BF05C-BBC8-4925-915F-2FCF7F0E9369}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{BEDCE023-372B-4C88-9884-1E41B75E766E}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{1D8D60D4-AB56-42D5-A2CD-19CF98EEEAE4}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{D471B73E-3AB7-40E1-AED3-F59B5B8FD7F9}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{816FCE8E-A6A1-40D2-92EF-932F85102CB2}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{5BDB438B-B5AB-487B-AE2B-BA6F1045B1AF}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{7B895F75-C8D4-4C56-A269-32DEE4CA857F}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{D95AE377-3CED-4D8C-93C2-6DA87A8DB1FD}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{1F078987-D79C-4F8B-8A90-197720651CAE}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{23502F85-09E4-4D91-9376-A4E865044C4D}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{0A9935F4-3981-4C7E-8224-D7E5F52764E0}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{9BF17CAD-6F73-40B4-A916-8B4B7228BB5D}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{CF090186-D25A-43FF-9B18-44447D8620D5}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{4C86A328-A7F3-40C3-A7B0-D927D3F22289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>